--- a/Results/lica_placebo_COEFFICIENT_SUMMARY.xlsx
+++ b/Results/lica_placebo_COEFFICIENT_SUMMARY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,42 +491,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.515</t>
+          <t>1.853</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-0.053, 1.083]</t>
+          <t>[0.327, 3.380]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.673</t>
+          <t>6.382</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.949, 2.952]</t>
+          <t>[1.386, 29.376]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.385</t>
+          <t>1.085</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[-0.040, 0.809]</t>
+          <t>[0.191, 1.978]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.469</t>
+          <t>2.959</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0.961, 2.246]</t>
+          <t>[1.211, 7.231]</t>
         </is>
       </c>
     </row>
@@ -536,47 +536,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sex_Male</t>
+          <t>Onset_Limb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-0.994, 1.080]</t>
+          <t>[-0.278, 2.671]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>3.307</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.370, 2.946]</t>
+          <t>[0.757, 14.447]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[-0.743, 0.807]</t>
+          <t>[-0.163, 1.563]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>2.014</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.476, 2.242]</t>
+          <t>[0.850, 4.773]</t>
         </is>
       </c>
     </row>
@@ -586,47 +586,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diagnostic_Delay</t>
+          <t>Sex_Male</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.946</t>
+          <t>-0.563</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-1.463, -0.429]</t>
+          <t>[-1.147, 0.021]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.388</t>
+          <t>0.569</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.231, 0.651]</t>
+          <t>[0.317, 1.021]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.707</t>
+          <t>-0.330</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[-1.094, -0.321]</t>
+          <t>[-0.672, 0.012]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.335, 0.726]</t>
+          <t>[0.511, 1.012]</t>
         </is>
       </c>
     </row>
@@ -636,97 +636,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Onset_Limb</t>
+          <t>Age_onset</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.293</t>
+          <t>-1.878</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[-1.440, 0.854]</t>
+          <t>[-3.436, -0.320]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>0.153</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.237, 2.348]</t>
+          <t>[0.032, 0.726]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.219</t>
+          <t>-1.099</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[-1.076, 0.638]</t>
+          <t>[-2.011, -0.187]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.333</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0.341, 1.893]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vital_capacity</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-0.514</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[-0.907, -0.121]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.598</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[0.404, 0.886]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.384</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[-0.678, -0.090]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.681</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[0.508, 0.913]</t>
+          <t>[0.134, 0.829]</t>
         </is>
       </c>
     </row>

--- a/Results/lica_placebo_COEFFICIENT_SUMMARY.xlsx
+++ b/Results/lica_placebo_COEFFICIENT_SUMMARY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,42 +491,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.853</t>
+          <t>-1.244</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.327, 3.380]</t>
+          <t>[-2.338, -0.149]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.382</t>
+          <t>0.288</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1.386, 29.376]</t>
+          <t>[0.096, 0.862]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>-1.026</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.191, 1.978]</t>
+          <t>[-1.929, -0.123]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.959</t>
+          <t>0.358</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[1.211, 7.231]</t>
+          <t>[0.145, 0.884]</t>
         </is>
       </c>
     </row>
@@ -541,42 +541,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>-0.121</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-0.278, 2.671]</t>
+          <t>[-0.507, 0.266]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.307</t>
+          <t>0.886</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.757, 14.447]</t>
+          <t>[0.602, 1.304]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>-0.100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[-0.163, 1.563]</t>
+          <t>[-0.418, 0.219]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.014</t>
+          <t>0.905</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.850, 4.773]</t>
+          <t>[0.658, 1.245]</t>
         </is>
       </c>
     </row>
@@ -591,42 +591,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.563</t>
+          <t>-0.002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-1.147, 0.021]</t>
+          <t>[-0.359, 0.355]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.569</t>
+          <t>0.998</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.317, 1.021]</t>
+          <t>[0.698, 1.426]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.330</t>
+          <t>-0.002</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[-0.672, 0.012]</t>
+          <t>[-0.297, 0.293]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.998</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.511, 1.012]</t>
+          <t>[0.743, 1.340]</t>
         </is>
       </c>
     </row>
@@ -636,47 +636,97 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Age_onset</t>
+          <t>Diagnostic_Delay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.878</t>
+          <t>-0.565</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[-3.436, -0.320]</t>
+          <t>[-0.734, -0.395]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.569</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.032, 0.726]</t>
+          <t>[0.480, 0.674]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.099</t>
+          <t>-0.466</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[-2.011, -0.187]</t>
+          <t>[-0.606, -0.326]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.333</t>
+          <t>0.628</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0.134, 0.829]</t>
+          <t>[0.546, 0.722]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Age_sq</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.000, 0.002]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1.000, 1.002]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[0.000, 0.001]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[1.000, 1.001]</t>
         </is>
       </c>
     </row>
